--- a/data/03035.xlsx
+++ b/data/03035.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,10 @@
           <t>2020-03-09</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>3035</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -444,6 +446,76 @@
       </c>
       <c r="I2" t="n">
         <v>60300</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>03035</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CTIB</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03035</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CTIB</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20000</v>
       </c>
     </row>
   </sheetData>
